--- a/Data/EC/NIT-9008372147.xlsx
+++ b/Data/EC/NIT-9008372147.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D994C26F-3C0D-41A8-8551-8183FCF4FB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A60F4CF8-B741-429D-AE55-27557A92E2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B0EB671A-0BD2-45EB-8BC5-56E886713172}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{86D9811E-B294-4009-A809-690AD261E281}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,73 +65,55 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73140681</t>
-  </si>
-  <si>
-    <t>LAUREANO HERRERA MELENDEZ</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
     <t>1143348947</t>
   </si>
   <si>
     <t>VANESSA DE LA PEÑA VILLALBA</t>
   </si>
   <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>1052739128</t>
-  </si>
-  <si>
-    <t>CRISTIAN ANDRES LIMA PUERTA</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +212,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +227,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +427,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +471,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +527,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE65A47-4C89-8C3B-9FD6-E4AB9F0366B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF92D23B-A512-C0FC-8A2D-0418811AD120}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,8 +878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFDAFDB-6769-44BE-B796-349884DE1BB0}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16093F8-1016-4AEB-9EA2-7E908389BAA3}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -908,7 +890,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -921,7 +903,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -966,7 +948,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -998,12 +980,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>4214496</v>
+        <v>4200000</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1014,17 +996,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1051,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1074,10 +1056,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>3108</v>
+        <v>280000</v>
       </c>
       <c r="G16" s="18">
-        <v>2330681</v>
+        <v>7000000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1088,13 +1070,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>280000</v>
@@ -1111,13 +1093,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>280000</v>
@@ -1134,13 +1116,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>280000</v>
@@ -1157,13 +1139,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>280000</v>
@@ -1180,13 +1162,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>280000</v>
@@ -1203,13 +1185,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>280000</v>
@@ -1226,13 +1208,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>280000</v>
@@ -1249,13 +1231,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>280000</v>
@@ -1272,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>280000</v>
@@ -1295,13 +1277,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>280000</v>
@@ -1318,13 +1300,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>280000</v>
@@ -1341,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>280000</v>
@@ -1364,13 +1346,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>280000</v>
@@ -1383,102 +1365,56 @@
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="18">
+      <c r="C30" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="24">
         <v>280000</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="24">
         <v>7000000</v>
       </c>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="18">
-        <v>280000</v>
-      </c>
-      <c r="G31" s="18">
-        <v>7000000</v>
-      </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="24">
-        <v>11388</v>
-      </c>
-      <c r="G32" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="H35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
